--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Sema5a-Met.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Sema5a-Met.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Met</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>31.9670545488631</v>
+        <v>0.5290683333333334</v>
       </c>
       <c r="H2">
-        <v>31.9670545488631</v>
+        <v>1.587205</v>
       </c>
       <c r="I2">
-        <v>0.8105620303793656</v>
+        <v>0.01267142171338989</v>
       </c>
       <c r="J2">
-        <v>0.8105620303793656</v>
+        <v>0.01267142171338989</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.965402633644852</v>
+        <v>1.655851666666667</v>
       </c>
       <c r="N2">
-        <v>0.965402633644852</v>
+        <v>4.967555</v>
       </c>
       <c r="O2">
-        <v>0.02295289496531967</v>
+        <v>0.03628213169899143</v>
       </c>
       <c r="P2">
-        <v>0.02295289496531967</v>
+        <v>0.03628213169899143</v>
       </c>
       <c r="Q2">
-        <v>30.86107865134109</v>
+        <v>0.8760586815305557</v>
       </c>
       <c r="R2">
-        <v>30.86107865134109</v>
+        <v>7.884528133775</v>
       </c>
       <c r="S2">
-        <v>0.01860474514617383</v>
+        <v>0.0004597461914186715</v>
       </c>
       <c r="T2">
-        <v>0.01860474514617383</v>
+        <v>0.0004597461914186715</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>31.9670545488631</v>
+        <v>0.5290683333333334</v>
       </c>
       <c r="H3">
-        <v>31.9670545488631</v>
+        <v>1.587205</v>
       </c>
       <c r="I3">
-        <v>0.8105620303793656</v>
+        <v>0.01267142171338989</v>
       </c>
       <c r="J3">
-        <v>0.8105620303793656</v>
+        <v>0.01267142171338989</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.41561530186034</v>
+        <v>1.416382666666667</v>
       </c>
       <c r="N3">
-        <v>1.41561530186034</v>
+        <v>4.249148</v>
       </c>
       <c r="O3">
-        <v>0.03365690977268751</v>
+        <v>0.03103501568568562</v>
       </c>
       <c r="P3">
-        <v>0.03365690977268751</v>
+        <v>0.03103501568568562</v>
       </c>
       <c r="Q3">
-        <v>45.25305157477479</v>
+        <v>0.7493632168155555</v>
       </c>
       <c r="R3">
-        <v>45.25305157477479</v>
+        <v>6.74426895134</v>
       </c>
       <c r="S3">
-        <v>0.0272810131216447</v>
+        <v>0.0003932577716349924</v>
       </c>
       <c r="T3">
-        <v>0.0272810131216447</v>
+        <v>0.0003932577716349925</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>31.9670545488631</v>
+        <v>0.5290683333333334</v>
       </c>
       <c r="H4">
-        <v>31.9670545488631</v>
+        <v>1.587205</v>
       </c>
       <c r="I4">
-        <v>0.8105620303793656</v>
+        <v>0.01267142171338989</v>
       </c>
       <c r="J4">
-        <v>0.8105620303793656</v>
+        <v>0.01267142171338989</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.57298981575489</v>
+        <v>5.385314999999999</v>
       </c>
       <c r="N4">
-        <v>3.57298981575489</v>
+        <v>16.155945</v>
       </c>
       <c r="O4">
-        <v>0.08494948852951702</v>
+        <v>0.1180001276707882</v>
       </c>
       <c r="P4">
-        <v>0.08494948852951702</v>
+        <v>0.1180001276707882</v>
       </c>
       <c r="Q4">
-        <v>114.2179603427689</v>
+        <v>2.849199631525</v>
       </c>
       <c r="R4">
-        <v>114.2179603427689</v>
+        <v>25.642796683725</v>
       </c>
       <c r="S4">
-        <v>0.06885682990217394</v>
+        <v>0.001495229379950404</v>
       </c>
       <c r="T4">
-        <v>0.06885682990217394</v>
+        <v>0.001495229379950404</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>31.9670545488631</v>
+        <v>0.5290683333333334</v>
       </c>
       <c r="H5">
-        <v>31.9670545488631</v>
+        <v>1.587205</v>
       </c>
       <c r="I5">
-        <v>0.8105620303793656</v>
+        <v>0.01267142171338989</v>
       </c>
       <c r="J5">
-        <v>0.8105620303793656</v>
+        <v>0.01267142171338989</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>36.1061609160698</v>
+        <v>37.180664</v>
       </c>
       <c r="N5">
-        <v>36.1061609160698</v>
+        <v>111.541992</v>
       </c>
       <c r="O5">
-        <v>0.8584407067324759</v>
+        <v>0.8146827249445348</v>
       </c>
       <c r="P5">
-        <v>0.8584407067324759</v>
+        <v>0.8146827249445348</v>
       </c>
       <c r="Q5">
-        <v>1154.207615554032</v>
+        <v>19.67111193470667</v>
       </c>
       <c r="R5">
-        <v>1154.207615554032</v>
+        <v>177.04000741236</v>
       </c>
       <c r="S5">
-        <v>0.6958194422093732</v>
+        <v>0.01032318837038582</v>
       </c>
       <c r="T5">
-        <v>0.6958194422093732</v>
+        <v>0.01032318837038582</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.47108016601076</v>
+        <v>32.04971933333334</v>
       </c>
       <c r="H6">
-        <v>7.47108016601076</v>
+        <v>96.149158</v>
       </c>
       <c r="I6">
-        <v>0.1894379696206344</v>
+        <v>0.7676050216609417</v>
       </c>
       <c r="J6">
-        <v>0.1894379696206344</v>
+        <v>0.7676050216609416</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.965402633644852</v>
+        <v>1.655851666666667</v>
       </c>
       <c r="N6">
-        <v>0.965402633644852</v>
+        <v>4.967555</v>
       </c>
       <c r="O6">
-        <v>0.02295289496531967</v>
+        <v>0.03628213169899143</v>
       </c>
       <c r="P6">
-        <v>0.02295289496531967</v>
+        <v>0.03628213169899143</v>
       </c>
       <c r="Q6">
-        <v>7.212600468438606</v>
+        <v>53.0695811742989</v>
       </c>
       <c r="R6">
-        <v>7.212600468438606</v>
+        <v>477.62623056869</v>
       </c>
       <c r="S6">
-        <v>0.004348149819145839</v>
+        <v>0.02785034648870946</v>
       </c>
       <c r="T6">
-        <v>0.004348149819145839</v>
+        <v>0.02785034648870945</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.47108016601076</v>
+        <v>32.04971933333334</v>
       </c>
       <c r="H7">
-        <v>7.47108016601076</v>
+        <v>96.149158</v>
       </c>
       <c r="I7">
-        <v>0.1894379696206344</v>
+        <v>0.7676050216609417</v>
       </c>
       <c r="J7">
-        <v>0.1894379696206344</v>
+        <v>0.7676050216609416</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.41561530186034</v>
+        <v>1.416382666666667</v>
       </c>
       <c r="N7">
-        <v>1.41561530186034</v>
+        <v>4.249148</v>
       </c>
       <c r="O7">
-        <v>0.03365690977268751</v>
+        <v>0.03103501568568562</v>
       </c>
       <c r="P7">
-        <v>0.03365690977268751</v>
+        <v>0.03103501568568562</v>
       </c>
       <c r="Q7">
-        <v>10.57617540443012</v>
+        <v>45.39466693526489</v>
       </c>
       <c r="R7">
-        <v>10.57617540443012</v>
+        <v>408.552002417384</v>
       </c>
       <c r="S7">
-        <v>0.006375896651042808</v>
+        <v>0.02382263388765837</v>
       </c>
       <c r="T7">
-        <v>0.006375896651042808</v>
+        <v>0.02382263388765837</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.47108016601076</v>
+        <v>32.04971933333334</v>
       </c>
       <c r="H8">
-        <v>7.47108016601076</v>
+        <v>96.149158</v>
       </c>
       <c r="I8">
-        <v>0.1894379696206344</v>
+        <v>0.7676050216609417</v>
       </c>
       <c r="J8">
-        <v>0.1894379696206344</v>
+        <v>0.7676050216609416</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.57298981575489</v>
+        <v>5.385314999999999</v>
       </c>
       <c r="N8">
-        <v>3.57298981575489</v>
+        <v>16.155945</v>
       </c>
       <c r="O8">
-        <v>0.08494948852951702</v>
+        <v>0.1180001276707882</v>
       </c>
       <c r="P8">
-        <v>0.08494948852951702</v>
+        <v>0.1180001276707882</v>
       </c>
       <c r="Q8">
-        <v>26.6940933458448</v>
+        <v>172.59783427159</v>
       </c>
       <c r="R8">
-        <v>26.6940933458448</v>
+        <v>1553.38050844431</v>
       </c>
       <c r="S8">
-        <v>0.01609265862734307</v>
+        <v>0.09057749055672923</v>
       </c>
       <c r="T8">
-        <v>0.01609265862734307</v>
+        <v>0.09057749055672923</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>32.04971933333334</v>
+      </c>
+      <c r="H9">
+        <v>96.149158</v>
+      </c>
+      <c r="I9">
+        <v>0.7676050216609417</v>
+      </c>
+      <c r="J9">
+        <v>0.7676050216609416</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>37.180664</v>
+      </c>
+      <c r="N9">
+        <v>111.541992</v>
+      </c>
+      <c r="O9">
+        <v>0.8146827249445348</v>
+      </c>
+      <c r="P9">
+        <v>0.8146827249445348</v>
+      </c>
+      <c r="Q9">
+        <v>1191.629845826971</v>
+      </c>
+      <c r="R9">
+        <v>10724.66861244274</v>
+      </c>
+      <c r="S9">
+        <v>0.6253545507278446</v>
+      </c>
+      <c r="T9">
+        <v>0.6253545507278445</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>9.174090999999999</v>
+      </c>
+      <c r="H10">
+        <v>27.522273</v>
+      </c>
+      <c r="I10">
+        <v>0.2197235566256685</v>
+      </c>
+      <c r="J10">
+        <v>0.2197235566256685</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.655851666666667</v>
+      </c>
+      <c r="N10">
+        <v>4.967555</v>
+      </c>
+      <c r="O10">
+        <v>0.03628213169899143</v>
+      </c>
+      <c r="P10">
+        <v>0.03628213169899143</v>
+      </c>
+      <c r="Q10">
+        <v>15.19093387250166</v>
+      </c>
+      <c r="R10">
+        <v>136.718404852515</v>
+      </c>
+      <c r="S10">
+        <v>0.007972039018863305</v>
+      </c>
+      <c r="T10">
+        <v>0.007972039018863305</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>7.47108016601076</v>
-      </c>
-      <c r="H9">
-        <v>7.47108016601076</v>
-      </c>
-      <c r="I9">
-        <v>0.1894379696206344</v>
-      </c>
-      <c r="J9">
-        <v>0.1894379696206344</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>36.1061609160698</v>
-      </c>
-      <c r="N9">
-        <v>36.1061609160698</v>
-      </c>
-      <c r="O9">
-        <v>0.8584407067324759</v>
-      </c>
-      <c r="P9">
-        <v>0.8584407067324759</v>
-      </c>
-      <c r="Q9">
-        <v>269.752022690842</v>
-      </c>
-      <c r="R9">
-        <v>269.752022690842</v>
-      </c>
-      <c r="S9">
-        <v>0.1626212645231027</v>
-      </c>
-      <c r="T9">
-        <v>0.1626212645231027</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>9.174090999999999</v>
+      </c>
+      <c r="H11">
+        <v>27.522273</v>
+      </c>
+      <c r="I11">
+        <v>0.2197235566256685</v>
+      </c>
+      <c r="J11">
+        <v>0.2197235566256685</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.416382666666667</v>
+      </c>
+      <c r="N11">
+        <v>4.249148</v>
+      </c>
+      <c r="O11">
+        <v>0.03103501568568562</v>
+      </c>
+      <c r="P11">
+        <v>0.03103501568568562</v>
+      </c>
+      <c r="Q11">
+        <v>12.99402347482267</v>
+      </c>
+      <c r="R11">
+        <v>116.946211273404</v>
+      </c>
+      <c r="S11">
+        <v>0.006819124026392253</v>
+      </c>
+      <c r="T11">
+        <v>0.006819124026392255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>9.174090999999999</v>
+      </c>
+      <c r="H12">
+        <v>27.522273</v>
+      </c>
+      <c r="I12">
+        <v>0.2197235566256685</v>
+      </c>
+      <c r="J12">
+        <v>0.2197235566256685</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>5.385314999999999</v>
+      </c>
+      <c r="N12">
+        <v>16.155945</v>
+      </c>
+      <c r="O12">
+        <v>0.1180001276707882</v>
+      </c>
+      <c r="P12">
+        <v>0.1180001276707882</v>
+      </c>
+      <c r="Q12">
+        <v>49.40536987366499</v>
+      </c>
+      <c r="R12">
+        <v>444.648328862985</v>
+      </c>
+      <c r="S12">
+        <v>0.02592740773410853</v>
+      </c>
+      <c r="T12">
+        <v>0.02592740773410854</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>9.174090999999999</v>
+      </c>
+      <c r="H13">
+        <v>27.522273</v>
+      </c>
+      <c r="I13">
+        <v>0.2197235566256685</v>
+      </c>
+      <c r="J13">
+        <v>0.2197235566256685</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>37.180664</v>
+      </c>
+      <c r="N13">
+        <v>111.541992</v>
+      </c>
+      <c r="O13">
+        <v>0.8146827249445348</v>
+      </c>
+      <c r="P13">
+        <v>0.8146827249445348</v>
+      </c>
+      <c r="Q13">
+        <v>341.098794976424</v>
+      </c>
+      <c r="R13">
+        <v>3069.889154787816</v>
+      </c>
+      <c r="S13">
+        <v>0.1790049858463044</v>
+      </c>
+      <c r="T13">
+        <v>0.1790049858463044</v>
       </c>
     </row>
   </sheetData>
